--- a/NRI_STLF_Data/WeatherData/T_semnan/T_semnan92.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_semnan/T_semnan92.xlsx
@@ -43,11 +43,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -378,13 +378,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="G320" sqref="G320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>92</v>
       </c>
@@ -461,7 +461,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>92</v>
       </c>
@@ -538,7 +538,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>92</v>
       </c>
@@ -615,7 +615,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>92</v>
       </c>
@@ -692,7 +692,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>92</v>
       </c>
@@ -769,7 +769,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>92</v>
       </c>
@@ -843,7 +843,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>92</v>
       </c>
@@ -920,7 +920,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>92</v>
       </c>
@@ -997,7 +997,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>92</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>92</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>92</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>92</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>92</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>92</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>92</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>92</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>92</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>92</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>92</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>92</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>92</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>92</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>92</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>92</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>92</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>92</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>92</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>92</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>92</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>92</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>92</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>92</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>92</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>92</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>92</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>92</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>92</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>92</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>92</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>92</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>92</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>92</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>92</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>92</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>92</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>92</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>92</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>92</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>92</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>92</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>92</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>92</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>92</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>92</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>92</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>92</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>92</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>92</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>92</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>92</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>92</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>92</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>92</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>92</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>92</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>92</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>92</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>92</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>92</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>92</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>92</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>92</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>92</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>92</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>92</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>92</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>92</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>92</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>92</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>92</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>92</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>92</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>92</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>92</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>92</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>92</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>92</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>92</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>92</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>92</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>92</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>92</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>92</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>92</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>92</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>92</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>92</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>92</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>92</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>92</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>92</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>92</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>92</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>92</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>92</v>
       </c>
@@ -8599,7 +8599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>92</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>92</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>92</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>92</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>92</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>92</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>92</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>92</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>92</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>92</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>92</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>92</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>92</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>92</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>92</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>92</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>92</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>92</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>92</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>92</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>92</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>92</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>92</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>92</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>92</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>92</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>92</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>92</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>92</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>92</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>92</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>92</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>92</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>92</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>92</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>92</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>92</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>92</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>92</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>92</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>92</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>92</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>92</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>92</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>92</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>92</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>92</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>92</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>92</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>92</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>92</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>92</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>92</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>92</v>
       </c>
@@ -12694,7 +12694,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>92</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>92</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>92</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>92</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>92</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>92</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>92</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>92</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>92</v>
       </c>
@@ -13387,7 +13387,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>92</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>92</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>92</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>92</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>92</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>92</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>92</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>92</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>92</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>92</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>92</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>92</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>92</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>92</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>92</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>92</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>92</v>
       </c>
@@ -14663,7 +14663,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>92</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>92</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>92</v>
       </c>
@@ -14891,7 +14891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>92</v>
       </c>
@@ -14965,7 +14965,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>92</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>92</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>92</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>92</v>
       </c>
@@ -15267,7 +15267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>92</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>92</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>92</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>92</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>92</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>92</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>92</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>92</v>
       </c>
@@ -15865,7 +15865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>92</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>92</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>92</v>
       </c>
@@ -16087,7 +16087,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>92</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>92</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>92</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>92</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>92</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>92</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>92</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>92</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>92</v>
       </c>
@@ -16771,7 +16771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>92</v>
       </c>
@@ -16848,7 +16848,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>92</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>92</v>
       </c>
@@ -16999,7 +16999,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>92</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>92</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>92</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>92</v>
       </c>
@@ -17310,7 +17310,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>92</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>92</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>92</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>92</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>92</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>92</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>92</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>92</v>
       </c>
@@ -17932,7 +17932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>92</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>92</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>92</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>92</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>92</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>92</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>92</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>92</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>92</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>92</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>92</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>92</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>92</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>92</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>92</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>92</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>92</v>
       </c>
@@ -19235,7 +19235,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>92</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>92</v>
       </c>
@@ -19389,7 +19389,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>92</v>
       </c>
@@ -19469,7 +19469,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>92</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>92</v>
       </c>
@@ -19623,7 +19623,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>92</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>92</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>92</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>92</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>92</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>92</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>92</v>
       </c>
@@ -20165,7 +20165,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>92</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>92</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>92</v>
       </c>
@@ -20399,7 +20399,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>92</v>
       </c>
@@ -20476,7 +20476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>92</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>92</v>
       </c>
@@ -20633,7 +20633,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>92</v>
       </c>
@@ -20707,7 +20707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>92</v>
       </c>
@@ -20784,7 +20784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>92</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>92</v>
       </c>
@@ -20941,7 +20941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>92</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>92</v>
       </c>
@@ -21092,7 +21092,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>92</v>
       </c>
@@ -21169,7 +21169,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>92</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>92</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>92</v>
       </c>
@@ -21397,7 +21397,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>92</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>92</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>92</v>
       </c>
@@ -21619,7 +21619,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>92</v>
       </c>
@@ -21693,7 +21693,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>92</v>
       </c>
@@ -21767,7 +21767,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>92</v>
       </c>
@@ -21841,7 +21841,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>92</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>92</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>92</v>
       </c>
@@ -22063,7 +22063,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>92</v>
       </c>
@@ -22137,7 +22137,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>92</v>
       </c>
@@ -22211,7 +22211,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>92</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>92</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>92</v>
       </c>
@@ -22445,7 +22445,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>92</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>92</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>92</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>92</v>
       </c>
@@ -22756,7 +22756,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>92</v>
       </c>
@@ -22836,7 +22836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>92</v>
       </c>
@@ -22913,7 +22913,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>92</v>
       </c>
@@ -22990,7 +22990,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>92</v>
       </c>
@@ -23067,7 +23067,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>92</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>92</v>
       </c>
@@ -23221,7 +23221,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>92</v>
       </c>
@@ -23298,7 +23298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>92</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>92</v>
       </c>
@@ -23455,7 +23455,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>92</v>
       </c>
@@ -23532,7 +23532,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>92</v>
       </c>
@@ -23609,7 +23609,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>92</v>
       </c>
@@ -23686,7 +23686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>92</v>
       </c>
@@ -23763,7 +23763,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>92</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>92</v>
       </c>
@@ -23911,7 +23911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>92</v>
       </c>
@@ -23988,7 +23988,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>92</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>92</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>92</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>92</v>
       </c>
@@ -24293,7 +24293,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>92</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>92</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>92</v>
       </c>
@@ -24524,7 +24524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>92</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>92</v>
       </c>
@@ -24620,9 +24620,6 @@
       <c r="F318">
         <v>1</v>
       </c>
-      <c r="G318">
-        <v>0</v>
-      </c>
       <c r="H318">
         <v>1</v>
       </c>
@@ -24675,7 +24672,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>92</v>
       </c>
@@ -24749,7 +24746,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>92</v>
       </c>
@@ -24823,7 +24820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>92</v>
       </c>
@@ -24900,7 +24897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>92</v>
       </c>
@@ -24977,7 +24974,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>92</v>
       </c>
@@ -25051,7 +25048,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>92</v>
       </c>
@@ -25125,7 +25122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>92</v>
       </c>
@@ -25199,7 +25196,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>92</v>
       </c>
@@ -25273,7 +25270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>92</v>
       </c>
@@ -25347,7 +25344,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>92</v>
       </c>
@@ -25424,7 +25421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>92</v>
       </c>
@@ -25501,7 +25498,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>92</v>
       </c>
@@ -25575,7 +25572,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>92</v>
       </c>
@@ -25649,7 +25646,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>92</v>
       </c>
@@ -25723,7 +25720,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>92</v>
       </c>
@@ -25797,7 +25794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>92</v>
       </c>
@@ -25874,7 +25871,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>92</v>
       </c>
@@ -25951,7 +25948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>92</v>
       </c>
@@ -26028,7 +26025,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>92</v>
       </c>
@@ -26108,7 +26105,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>92</v>
       </c>
@@ -26182,7 +26179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>92</v>
       </c>
@@ -26259,7 +26256,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>92</v>
       </c>
@@ -26336,7 +26333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>92</v>
       </c>
@@ -26413,7 +26410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>92</v>
       </c>
@@ -26487,7 +26484,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>92</v>
       </c>
@@ -26561,7 +26558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>92</v>
       </c>
@@ -26638,7 +26635,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>92</v>
       </c>
@@ -26715,7 +26712,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>92</v>
       </c>
@@ -26792,7 +26789,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>92</v>
       </c>
@@ -26869,7 +26866,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>92</v>
       </c>
@@ -26946,7 +26943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>92</v>
       </c>
@@ -27023,7 +27020,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>92</v>
       </c>
@@ -27100,7 +27097,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>92</v>
       </c>
@@ -27177,7 +27174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>92</v>
       </c>
@@ -27254,7 +27251,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>92</v>
       </c>
@@ -27331,7 +27328,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>92</v>
       </c>
@@ -27408,7 +27405,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>92</v>
       </c>
@@ -27485,7 +27482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>92</v>
       </c>
@@ -27562,7 +27559,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>92</v>
       </c>
@@ -27642,7 +27639,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>92</v>
       </c>
@@ -27722,7 +27719,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>92</v>
       </c>
@@ -27799,7 +27796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>92</v>
       </c>
@@ -27876,7 +27873,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>92</v>
       </c>
@@ -27953,7 +27950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>92</v>
       </c>
@@ -28030,7 +28027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>92</v>
       </c>
@@ -28107,7 +28104,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>92</v>
       </c>
@@ -28187,7 +28184,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>92</v>
       </c>
@@ -28275,7 +28272,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28287,7 +28284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
